--- a/output/assets/tabla-intermedia.xlsx
+++ b/output/assets/tabla-intermedia.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicob\OneDrive\Escritorio\ilporco-scraper\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26309A68-0167-4A6B-8DA0-DCB7D05FFE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="11955" activeTab="2"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Andina" sheetId="1" r:id="rId1"/>
@@ -12,11 +18,6 @@
     <sheet name="La-Serenisima" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="POKlQveHLc9OU1Z5HJkhK3APWcXNzAokUtAGAV03sVw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1844,7 +1845,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1911,19 +1912,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1933,11 +1933,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1947,6 +1947,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2149,7 +2152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D344"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2169,7 +2172,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2180,10 +2183,10 @@
       <c r="A2" s="1">
         <v>77987983</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>5434</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2">
@@ -2194,10 +2197,10 @@
       <c r="A3" s="1">
         <v>6910021007206</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1648</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2">
@@ -2208,10 +2211,10 @@
       <c r="A4" s="1">
         <v>7500435198776</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2347</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
@@ -2222,10 +2225,10 @@
       <c r="A5" s="1">
         <v>7500435216555</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3352</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
@@ -2236,10 +2239,10 @@
       <c r="A6" s="1">
         <v>7509546677163</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3236</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2">
@@ -2250,10 +2253,10 @@
       <c r="A7" s="1">
         <v>7509546677521</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2465</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2">
@@ -2264,10 +2267,10 @@
       <c r="A8" s="1">
         <v>7509546677552</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2374</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2">
@@ -2278,10 +2281,10 @@
       <c r="A9" s="1">
         <v>7509546679389</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3235</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
@@ -2292,10 +2295,10 @@
       <c r="A10" s="1">
         <v>7509546686400</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>5436</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2">
@@ -2306,10 +2309,10 @@
       <c r="A11" s="1">
         <v>7509546687285</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>3376</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2">
@@ -2320,10 +2323,10 @@
       <c r="A12" s="1">
         <v>7790047000035</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>2742</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2">
@@ -2334,10 +2337,10 @@
       <c r="A13" s="1">
         <v>7790047000066</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>3240</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2">
@@ -2348,10 +2351,10 @@
       <c r="A14" s="1">
         <v>7790047000196</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>2942</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2">
@@ -2362,10 +2365,10 @@
       <c r="A15" s="1">
         <v>7790139000400</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1681</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2">
@@ -2376,10 +2379,10 @@
       <c r="A16" s="1">
         <v>7790139000486</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1687</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2">
@@ -2390,10 +2393,10 @@
       <c r="A17" s="1">
         <v>7790139000615</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1682</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2">
@@ -2404,10 +2407,10 @@
       <c r="A18" s="1">
         <v>7790139003807</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1661</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2">
@@ -2418,10 +2421,10 @@
       <c r="A19" s="1">
         <v>7790139100735</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1680</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2">
@@ -2432,10 +2435,10 @@
       <c r="A20" s="1">
         <v>7790139100964</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1684</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2">
@@ -2446,10 +2449,10 @@
       <c r="A21" s="1">
         <v>7790139100971</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1685</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="2">
@@ -2460,10 +2463,10 @@
       <c r="A22" s="1">
         <v>7790139101046</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1686</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="2">
@@ -2474,10 +2477,10 @@
       <c r="A23" s="1">
         <v>7790250015826</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>3338</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2">
@@ -2488,10 +2491,10 @@
       <c r="A24" s="1">
         <v>7790250056843</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>5606</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="2">
@@ -2502,10 +2505,10 @@
       <c r="A25" s="1">
         <v>7790250066026</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>3493</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="2">
@@ -2516,10 +2519,10 @@
       <c r="A26" s="1">
         <v>7790250068020</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>3475</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="2">
@@ -2530,10 +2533,10 @@
       <c r="A27" s="1">
         <v>7790345130007</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>3106</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2">
@@ -2544,10 +2547,10 @@
       <c r="A28" s="1">
         <v>7790520005939</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>5654</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="2">
@@ -2558,10 +2561,10 @@
       <c r="A29" s="1">
         <v>7790520009265</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1586</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="2">
@@ -2572,10 +2575,10 @@
       <c r="A30" s="1">
         <v>7790520009289</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>1585</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="2">
@@ -2586,10 +2589,10 @@
       <c r="A31" s="1">
         <v>7790520009296</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>1663</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="2">
@@ -2600,10 +2603,10 @@
       <c r="A32" s="1">
         <v>7790520009302</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>2213</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="2">
@@ -2614,10 +2617,10 @@
       <c r="A33" s="1">
         <v>7790520009326</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>2212</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="2">
@@ -2628,10 +2631,10 @@
       <c r="A34" s="1">
         <v>7790520009746</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>3026</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="2">
@@ -2642,10 +2645,10 @@
       <c r="A35" s="1">
         <v>7790520009920</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>3239</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="2">
@@ -2656,10 +2659,10 @@
       <c r="A36" s="1">
         <v>7790520010186</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>2949</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="2">
@@ -2670,10 +2673,10 @@
       <c r="A37" s="1">
         <v>7790520010445</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>1497</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="2">
@@ -2684,10 +2687,10 @@
       <c r="A38" s="1">
         <v>7790520014863</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>3119</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="2">
@@ -2698,10 +2701,10 @@
       <c r="A39" s="1">
         <v>7790520017741</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>2950</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="2">
@@ -2712,10 +2715,10 @@
       <c r="A40" s="1">
         <v>7790520017758</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>3105</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="2">
@@ -2726,10 +2729,10 @@
       <c r="A41" s="1">
         <v>7790520025395</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>2741</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="2">
@@ -2740,10 +2743,10 @@
       <c r="A42" s="1">
         <v>7790520028655</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>5755</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="2">
@@ -2754,10 +2757,10 @@
       <c r="A43" s="1">
         <v>7790520990013</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>3036</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="2">
@@ -2768,10 +2771,10 @@
       <c r="A44" s="1">
         <v>7790520995285</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>2604</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="2">
@@ -2782,10 +2785,10 @@
       <c r="A45" s="1">
         <v>7790520995315</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>2214</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="2">
@@ -2796,10 +2799,10 @@
       <c r="A46" s="1">
         <v>7790520995322</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>3886</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="2">
@@ -2810,10 +2813,10 @@
       <c r="A47" s="1">
         <v>7790520995360</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>1900</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="2">
@@ -2824,10 +2827,10 @@
       <c r="A48" s="1">
         <v>7790520995445</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>2702</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D48" s="2">
@@ -2838,10 +2841,10 @@
       <c r="A49" s="1">
         <v>7790520995803</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>3037</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="2">
@@ -2852,10 +2855,10 @@
       <c r="A50" s="1">
         <v>7790520996633</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>1856</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="2">
@@ -2866,10 +2869,10 @@
       <c r="A51" s="1">
         <v>7790520996985</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>3228</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="2">
@@ -2880,10 +2883,10 @@
       <c r="A52" s="1">
         <v>7790520997029</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>2744</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D52" s="2">
@@ -2894,10 +2897,10 @@
       <c r="A53" s="1">
         <v>7790520997432</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>3027</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="2">
@@ -2908,10 +2911,10 @@
       <c r="A54" s="1">
         <v>7790520997647</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>3172</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="2">
@@ -2922,10 +2925,10 @@
       <c r="A55" s="1">
         <v>7790520998194</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>3237</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="2">
@@ -2936,10 +2939,10 @@
       <c r="A56" s="1">
         <v>7790520998217</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>2440</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="2">
@@ -2950,10 +2953,10 @@
       <c r="A57" s="1">
         <v>7790520998262</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>2368</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="2">
@@ -2964,10 +2967,10 @@
       <c r="A58" s="1">
         <v>7790520998576</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>3341</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="2">
@@ -2978,10 +2981,10 @@
       <c r="A59" s="1">
         <v>7790520998835</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>3207</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="2">
@@ -2992,10 +2995,10 @@
       <c r="A60" s="1">
         <v>7790520998927</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>2743</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="2">
@@ -3006,10 +3009,10 @@
       <c r="A61" s="1">
         <v>7790590016286</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>3233</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="2">
@@ -3020,10 +3023,10 @@
       <c r="A62" s="1">
         <v>7790770601066</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>2464</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D62" s="2">
@@ -3034,10 +3037,10 @@
       <c r="A63" s="1">
         <v>7790828002890</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>2948</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D63" s="2">
@@ -3048,10 +3051,10 @@
       <c r="A64" s="1">
         <v>7790828002913</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>1723</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D64" s="2">
@@ -3062,10 +3065,10 @@
       <c r="A65" s="1">
         <v>7790828101579</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>3025</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="2">
@@ -3076,10 +3079,10 @@
       <c r="A66" s="1">
         <v>7790828103313</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>5886</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="2">
@@ -3090,10 +3093,10 @@
       <c r="A67" s="1">
         <v>7790828104655</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>5877</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="2">
@@ -3104,10 +3107,10 @@
       <c r="A68" s="1">
         <v>7790927812956</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>5888</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D68" s="2">
@@ -3118,10 +3121,10 @@
       <c r="A69" s="1">
         <v>7790927812994</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>3488</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D69" s="2">
@@ -3132,10 +3135,10 @@
       <c r="A70" s="1">
         <v>7790927813243</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>1505</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="2">
@@ -3146,10 +3149,10 @@
       <c r="A71" s="1">
         <v>7790927817135</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>1722</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="2">
@@ -3160,10 +3163,10 @@
       <c r="A72" s="1">
         <v>7790940003034</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>3977</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="2">
@@ -3174,10 +3177,10 @@
       <c r="A73" s="1">
         <v>7791274193408</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>3234</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D73" s="2">
@@ -3188,10 +3191,10 @@
       <c r="A74" s="1">
         <v>7791290791367</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>2224</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="2">
@@ -3202,10 +3205,10 @@
       <c r="A75" s="1">
         <v>7791290791381</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>2471</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D75" s="2">
@@ -3216,10 +3219,10 @@
       <c r="A76" s="1">
         <v>7791290791503</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>2860</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="2">
@@ -3230,10 +3233,10 @@
       <c r="A77" s="1">
         <v>7791290791930</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>2217</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="2">
@@ -3244,10 +3247,10 @@
       <c r="A78" s="1">
         <v>7791290792012</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>2401</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D78" s="2">
@@ -3258,10 +3261,10 @@
       <c r="A79" s="1">
         <v>7791290792081</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>2750</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D79" s="2">
@@ -3272,10 +3275,10 @@
       <c r="A80" s="1">
         <v>7791290792098</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>2598</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D80" s="2">
@@ -3286,10 +3289,10 @@
       <c r="A81" s="1">
         <v>7791290792371</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>2372</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="2">
@@ -3300,10 +3303,10 @@
       <c r="A82" s="1">
         <v>7791290792418</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>3030</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D82" s="2">
@@ -3314,10 +3317,10 @@
       <c r="A83" s="1">
         <v>7791290792494</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>3109</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D83" s="2">
@@ -3328,10 +3331,10 @@
       <c r="A84" s="1">
         <v>7791290792555</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>2581</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D84" s="2">
@@ -3342,10 +3345,10 @@
       <c r="A85" s="1">
         <v>7791290792609</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>2373</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D85" s="2">
@@ -3356,10 +3359,10 @@
       <c r="A86" s="1">
         <v>7791290792616</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>2582</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D86" s="2">
@@ -3370,10 +3373,10 @@
       <c r="A87" s="1">
         <v>7791290792760</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>5367</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D87" s="2">
@@ -3384,10 +3387,10 @@
       <c r="A88" s="1">
         <v>7791290792777</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>3891</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D88" s="2">
@@ -3398,10 +3401,10 @@
       <c r="A89" s="1">
         <v>7791290792814</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>2432</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="2">
@@ -3412,10 +3415,10 @@
       <c r="A90" s="1">
         <v>7791290792982</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>3204</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D90" s="2">
@@ -3426,10 +3429,10 @@
       <c r="A91" s="1">
         <v>7791290793248</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>5230</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D91" s="2">
@@ -3440,10 +3443,10 @@
       <c r="A92" s="1">
         <v>7791290793255</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>5273</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D92" s="2">
@@ -3454,10 +3457,10 @@
       <c r="A93" s="1">
         <v>7791290793477</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>3353</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="2">
@@ -3468,10 +3471,10 @@
       <c r="A94" s="1">
         <v>7791290793774</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>3377</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D94" s="2">
@@ -3482,10 +3485,10 @@
       <c r="A95" s="1">
         <v>7791290793903</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>5656</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D95" s="2">
@@ -3496,10 +3499,10 @@
       <c r="A96" s="1">
         <v>7791290793927</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>5655</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D96" s="2">
@@ -3510,10 +3513,10 @@
       <c r="A97" s="1">
         <v>7791290794054</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>3379</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D97" s="2">
@@ -3524,10 +3527,10 @@
       <c r="A98" s="1">
         <v>7791290794238</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>5653</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D98" s="2">
@@ -3538,10 +3541,10 @@
       <c r="A99" s="1">
         <v>7791290794245</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>5385</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D99" s="2">
@@ -3552,10 +3555,10 @@
       <c r="A100" s="1">
         <v>7791290794450</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>3380</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D100" s="2">
@@ -3566,10 +3569,10 @@
       <c r="A101" s="1">
         <v>7791293040059</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>1993</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D101" s="2">
@@ -3580,10 +3583,10 @@
       <c r="A102" s="1">
         <v>7791293041902</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>5876</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D102" s="2">
@@ -3594,10 +3597,10 @@
       <c r="A103" s="1">
         <v>7791293041926</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>5172</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D103" s="2">
@@ -3608,10 +3611,10 @@
       <c r="A104" s="1">
         <v>7791293041940</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>5171</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D104" s="2">
@@ -3622,10 +3625,10 @@
       <c r="A105" s="1">
         <v>7791293041964</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>4139</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D105" s="2">
@@ -3636,10 +3639,10 @@
       <c r="A106" s="1">
         <v>7791293042220</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>5234</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="2">
@@ -3650,10 +3653,10 @@
       <c r="A107" s="1">
         <v>7791293042336</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>3465</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D107" s="2">
@@ -3664,10 +3667,10 @@
       <c r="A108" s="1">
         <v>7791293043517</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>2651</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D108" s="2">
@@ -3678,10 +3681,10 @@
       <c r="A109" s="1">
         <v>7791293043722</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>2946</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="2">
@@ -3692,10 +3695,10 @@
       <c r="A110" s="1">
         <v>7791293044231</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>5881</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="2">
@@ -3706,10 +3709,10 @@
       <c r="A111" s="1">
         <v>7791293044279</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>5882</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D111" s="2">
@@ -3720,10 +3723,10 @@
       <c r="A112" s="1">
         <v>7791293044361</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>5169</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D112" s="2">
@@ -3734,10 +3737,10 @@
       <c r="A113" s="1">
         <v>7791293044477</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>2567</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D113" s="2">
@@ -3748,10 +3751,10 @@
       <c r="A114" s="1">
         <v>7791293044491</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>2766</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D114" s="2">
@@ -3762,10 +3765,10 @@
       <c r="A115" s="1">
         <v>7791293044521</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>2591</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D115" s="2">
@@ -3776,10 +3779,10 @@
       <c r="A116" s="1">
         <v>7791293044576</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>5415</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="2">
@@ -3790,10 +3793,10 @@
       <c r="A117" s="1">
         <v>7791293044590</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>2723</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D117" s="2">
@@ -3804,10 +3807,10 @@
       <c r="A118" s="1">
         <v>7791293045078</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>2947</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D118" s="2">
@@ -3818,10 +3821,10 @@
       <c r="A119" s="1">
         <v>7791293045443</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>2909</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D119" s="2">
@@ -3832,10 +3835,10 @@
       <c r="A120" s="1">
         <v>7791293046228</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>3046</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D120" s="2">
@@ -3846,10 +3849,10 @@
       <c r="A121" s="1">
         <v>7791293048543</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>5650</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D121" s="2">
@@ -3860,10 +3863,10 @@
       <c r="A122" s="1">
         <v>7791293049175</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>5753</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D122" s="2">
@@ -3874,10 +3877,10 @@
       <c r="A123" s="1">
         <v>7791828000046</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>592</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="2">
@@ -3888,10 +3891,10 @@
       <c r="A124" s="1">
         <v>7791828000121</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>591</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D124" s="2">
@@ -3902,10 +3905,10 @@
       <c r="A125" s="1">
         <v>7791828000138</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>3779</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D125" s="2">
@@ -3916,10 +3919,10 @@
       <c r="A126" s="1">
         <v>7791828000428</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>2091</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D126" s="2">
@@ -3930,10 +3933,10 @@
       <c r="A127" s="1">
         <v>7791828000626</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>2036</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D127" s="2">
@@ -3944,10 +3947,10 @@
       <c r="A128" s="1">
         <v>7791828000657</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>2092</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D128" s="2">
@@ -3958,10 +3961,10 @@
       <c r="A129" s="1">
         <v>7791828000817</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>3490</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D129" s="2">
@@ -3972,10 +3975,10 @@
       <c r="A130" s="1">
         <v>7791828900377</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>1693</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D130" s="2">
@@ -3986,10 +3989,10 @@
       <c r="A131" s="1">
         <v>7791828900384</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>3068</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D131" s="2">
@@ -4000,10 +4003,10 @@
       <c r="A132" s="1">
         <v>7793253001209</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>3029</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D132" s="2">
@@ -4014,10 +4017,10 @@
       <c r="A133" s="1">
         <v>7793253003234</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>3051</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D133" s="2">
@@ -4028,10 +4031,10 @@
       <c r="A134" s="1">
         <v>7793253004231</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>1489</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D134" s="2">
@@ -4042,10 +4045,10 @@
       <c r="A135" s="1">
         <v>7793253004255</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>1490</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D135" s="2">
@@ -4056,10 +4059,10 @@
       <c r="A136" s="1">
         <v>7793253004323</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>5149</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D136" s="2">
@@ -4070,10 +4073,10 @@
       <c r="A137" s="1">
         <v>7793253004439</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>1691</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D137" s="2">
@@ -4084,10 +4087,10 @@
       <c r="A138" s="1">
         <v>7793253004446</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>1645</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D138" s="2">
@@ -4098,10 +4101,10 @@
       <c r="A139" s="1">
         <v>7793253005832</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>5391</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D139" s="2">
@@ -4112,10 +4115,10 @@
       <c r="A140" s="1">
         <v>7793253005849</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>6913</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D140" s="2">
@@ -4126,10 +4129,10 @@
       <c r="A141" s="1">
         <v>7793253038106</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>3971</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D141" s="2">
@@ -4140,10 +4143,10 @@
       <c r="A142" s="1">
         <v>7793344000463</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>2502</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D142" s="2">
@@ -4154,10 +4157,10 @@
       <c r="A143" s="1">
         <v>7793344009022</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>3474</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D143" s="2">
@@ -4168,10 +4171,10 @@
       <c r="A144" s="1">
         <v>7793344009206</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>3107</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D144" s="2">
@@ -4182,10 +4185,10 @@
       <c r="A145" s="1">
         <v>7793344009237</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>2501</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D145" s="2">
@@ -4196,10 +4199,10 @@
       <c r="A146" s="1">
         <v>7793344904013</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>2503</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D146" s="2">
@@ -4210,10 +4213,10 @@
       <c r="A147" s="1">
         <v>7793344904327</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>3175</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D147" s="2">
@@ -4224,10 +4227,10 @@
       <c r="A148" s="1">
         <v>7793344904853</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>3373</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D148" s="2">
@@ -4238,10 +4241,10 @@
       <c r="A149" s="1">
         <v>7794297020645</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>2957</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D149" s="2">
@@ -4252,10 +4255,10 @@
       <c r="A150" s="1">
         <v>7794297020652</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>2956</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D150" s="2">
@@ -4266,10 +4269,10 @@
       <c r="A151" s="1">
         <v>7794297023967</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>3125</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D151" s="2">
@@ -4280,10 +4283,10 @@
       <c r="A152" s="1">
         <v>7794297024025</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>3127</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D152" s="2">
@@ -4294,10 +4297,10 @@
       <c r="A153" s="1">
         <v>7794297024094</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>3128</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D153" s="2">
@@ -4308,10 +4311,10 @@
       <c r="A154" s="1">
         <v>7794297024209</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>3033</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D154" s="2">
@@ -4322,10 +4325,10 @@
       <c r="A155" s="1">
         <v>7794297024216</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>3477</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D155" s="2">
@@ -4336,10 +4339,10 @@
       <c r="A156" s="1">
         <v>7794297024223</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>3476</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D156" s="2">
@@ -4350,10 +4353,10 @@
       <c r="A157" s="1">
         <v>7794417000205</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>1713</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D157" s="2">
@@ -4364,10 +4367,10 @@
       <c r="A158" s="1">
         <v>7794417000663</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>1712</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D158" s="2">
@@ -4378,10 +4381,10 @@
       <c r="A159" s="1">
         <v>7794417003114</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>1709</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D159" s="2">
@@ -4392,10 +4395,10 @@
       <c r="A160" s="1">
         <v>7794417221457</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>1708</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D160" s="2">
@@ -4406,10 +4409,10 @@
       <c r="A161" s="1">
         <v>7794440001729</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>1742</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D161" s="2">
@@ -4420,10 +4423,10 @@
       <c r="A162" s="1">
         <v>7794440002610</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="2">
         <v>5873</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D162" s="2">
@@ -4434,10 +4437,10 @@
       <c r="A163" s="1">
         <v>7794440003303</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>1734</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D163" s="2">
@@ -4448,10 +4451,10 @@
       <c r="A164" s="1">
         <v>7794440005352</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>5239</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D164" s="2">
@@ -4462,10 +4465,10 @@
       <c r="A165" s="1">
         <v>7794440006571</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="2">
         <v>1710</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D165" s="2">
@@ -4476,10 +4479,10 @@
       <c r="A166" s="1">
         <v>7794440101702</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>1741</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D166" s="2">
@@ -4490,10 +4493,10 @@
       <c r="A167" s="1">
         <v>7794459000287</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="2">
         <v>3111</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D167" s="2">
@@ -4504,10 +4507,10 @@
       <c r="A168" s="1">
         <v>7794459000355</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="2">
         <v>3345</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D168" s="2">
@@ -4518,10 +4521,10 @@
       <c r="A169" s="1">
         <v>7794459000430</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="2">
         <v>2701</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>171</v>
       </c>
       <c r="D169" s="2">
@@ -4532,10 +4535,10 @@
       <c r="A170" s="1">
         <v>7794459000454</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="2">
         <v>3043</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D170" s="2">
@@ -4546,10 +4549,10 @@
       <c r="A171" s="1">
         <v>7794459000485</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="2">
         <v>3110</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D171" s="2">
@@ -4560,10 +4563,10 @@
       <c r="A172" s="1">
         <v>7794459001208</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="2">
         <v>3044</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D172" s="2">
@@ -4574,10 +4577,10 @@
       <c r="A173" s="1">
         <v>7794459002823</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="2">
         <v>3113</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D173" s="2">
@@ -4588,10 +4591,10 @@
       <c r="A174" s="1">
         <v>7794459003899</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="2">
         <v>5885</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D174" s="2">
@@ -4602,10 +4605,10 @@
       <c r="A175" s="1">
         <v>7794626999758</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="2">
         <v>2959</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D175" s="2">
@@ -4616,10 +4619,10 @@
       <c r="A176" s="1">
         <v>7794626999765</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="2">
         <v>2960</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D176" s="2">
@@ -4630,10 +4633,10 @@
       <c r="A177" s="1">
         <v>7794626999772</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="2">
         <v>2961</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D177" s="2">
@@ -4644,10 +4647,10 @@
       <c r="A178" s="1">
         <v>7795085000016</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2">
         <v>3174</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D178" s="2">
@@ -4658,10 +4661,10 @@
       <c r="A179" s="1">
         <v>7796662000054</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="2">
         <v>2958</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D179" s="2">
@@ -4672,10 +4675,10 @@
       <c r="A180" s="1">
         <v>7796662000153</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="2">
         <v>3428</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D180" s="2">
@@ -4686,10 +4689,10 @@
       <c r="A181" s="1">
         <v>7796662000290</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2">
         <v>3232</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D181" s="2">
@@ -4700,10 +4703,10 @@
       <c r="A182" s="1">
         <v>7796662000344</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="2">
         <v>3229</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D182" s="2">
@@ -4714,10 +4717,10 @@
       <c r="A183" s="1">
         <v>7796662000412</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2">
         <v>3230</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D183" s="2">
@@ -4728,10 +4731,10 @@
       <c r="A184" s="1">
         <v>7796662000429</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="2">
         <v>3487</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D184" s="2">
@@ -4742,10 +4745,10 @@
       <c r="A185" s="1">
         <v>7796662000436</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="2">
         <v>2943</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D185" s="2">
@@ -4756,10 +4759,10 @@
       <c r="A186" s="1">
         <v>7797470007150</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="2">
         <v>3421</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D186" s="2">
@@ -4770,10 +4773,10 @@
       <c r="A187" s="1">
         <v>7798009086325</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="2">
         <v>2746</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D187" s="2">
@@ -4784,10 +4787,10 @@
       <c r="A188" s="1">
         <v>7798061890021</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="2">
         <v>1739</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D188" s="2">
@@ -4798,10 +4801,10 @@
       <c r="A189" s="1">
         <v>7798061890144</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="2">
         <v>5652</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D189" s="2">
@@ -4812,10 +4815,10 @@
       <c r="A190" s="1">
         <v>7798061890250</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="2">
         <v>1738</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D190" s="2">
@@ -4826,10 +4829,10 @@
       <c r="A191" s="1">
         <v>7798061890946</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="2">
         <v>3118</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D191" s="2">
@@ -4840,10 +4843,10 @@
       <c r="A192" s="1">
         <v>7798061890960</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="2">
         <v>1733</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D192" s="2">
@@ -4854,10 +4857,10 @@
       <c r="A193" s="1">
         <v>7798061891110</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="2">
         <v>3480</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D193" s="2">
@@ -4868,10 +4871,10 @@
       <c r="A194" s="1">
         <v>7798061891806</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="2">
         <v>3479</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D194" s="2">
@@ -4882,10 +4885,10 @@
       <c r="A195" s="1">
         <v>7798061891882</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2">
         <v>1732</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D195" s="2">
@@ -4896,10 +4899,10 @@
       <c r="A196" s="1">
         <v>7798061894326</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="2">
         <v>5898</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="2" t="s">
         <v>198</v>
       </c>
       <c r="D196" s="2">
@@ -4910,10 +4913,10 @@
       <c r="A197" s="1">
         <v>7798061895378</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="2">
         <v>3483</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D197" s="2">
@@ -4924,10 +4927,10 @@
       <c r="A198" s="1">
         <v>7798074540371</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="2">
         <v>3486</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D198" s="2">
@@ -4938,10 +4941,10 @@
       <c r="A199" s="1">
         <v>7798092961042</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>3231</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D199" s="2">
@@ -4952,10 +4955,10 @@
       <c r="A200" s="1">
         <v>7798092961950</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>1719</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D200" s="2">
@@ -4966,10 +4969,10 @@
       <c r="A201" s="1">
         <v>7798092961967</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2">
         <v>1717</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D201" s="2">
@@ -4980,10 +4983,10 @@
       <c r="A202" s="1">
         <v>7798092962261</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="2">
         <v>1736</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D202" s="2">
@@ -4994,10 +4997,10 @@
       <c r="A203" s="1">
         <v>7798092963305</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="2">
         <v>1718</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D203" s="2">
@@ -5008,10 +5011,10 @@
       <c r="A204" s="1">
         <v>7798092963374</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="2">
         <v>1715</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D204" s="2">
@@ -5022,10 +5025,10 @@
       <c r="A205" s="1">
         <v>7798092964944</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="2">
         <v>3489</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D205" s="2">
@@ -5036,10 +5039,10 @@
       <c r="A206" s="1">
         <v>7798092967976</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="2">
         <v>3024</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D206" s="2">
@@ -5050,10 +5053,10 @@
       <c r="A207" s="1">
         <v>7798092968607</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="2">
         <v>3340</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D207" s="2">
@@ -5064,10 +5067,10 @@
       <c r="A208" s="1">
         <v>7798126370024</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="2">
         <v>5884</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D208" s="2">
@@ -5078,10 +5081,10 @@
       <c r="A209" s="1">
         <v>7798126370154</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="2">
         <v>5125</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D209" s="2">
@@ -5092,10 +5095,10 @@
       <c r="A210" s="1">
         <v>7798126371519</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="2">
         <v>1688</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D210" s="2">
@@ -5106,10 +5109,10 @@
       <c r="A211" s="1">
         <v>7798126371526</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="2">
         <v>2639</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D211" s="2">
@@ -5120,10 +5123,10 @@
       <c r="A212" s="1">
         <v>7798126371571</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="2">
         <v>5874</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D212" s="2">
@@ -5134,10 +5137,10 @@
       <c r="A213" s="1">
         <v>7798126371939</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="2">
         <v>3116</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D213" s="2">
@@ -5148,10 +5151,10 @@
       <c r="A214" s="1">
         <v>7798126375630</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="2">
         <v>3492</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D214" s="2">
@@ -5162,10 +5165,10 @@
       <c r="A215" s="1">
         <v>7798126375654</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="2">
         <v>3114</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D215" s="2">
@@ -5176,10 +5179,10 @@
       <c r="A216" s="1">
         <v>7798126376361</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="2">
         <v>3115</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D216" s="2">
@@ -5190,10 +5193,10 @@
       <c r="A217" s="1">
         <v>7798126376538</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="2">
         <v>3481</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D217" s="2">
@@ -5204,10 +5207,10 @@
       <c r="A218" s="1">
         <v>7798126378211</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="2">
         <v>5883</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D218" s="2">
@@ -5218,10 +5221,10 @@
       <c r="A219" s="1">
         <v>7798126379027</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="2">
         <v>3484</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D219" s="2">
@@ -5232,10 +5235,10 @@
       <c r="A220" s="1">
         <v>7798135412357</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="2">
         <v>2911</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D220" s="2">
@@ -5246,10 +5249,10 @@
       <c r="A221" s="1">
         <v>7798136921681</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="2">
         <v>1506</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D221" s="2">
@@ -5260,10 +5263,10 @@
       <c r="A222" s="1">
         <v>7798148010694</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="2">
         <v>3491</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D222" s="2">
@@ -5274,10 +5277,10 @@
       <c r="A223" s="1">
         <v>7798148010823</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="2">
         <v>2952</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D223" s="2">
@@ -5288,10 +5291,10 @@
       <c r="A224" s="1">
         <v>7798148010847</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="2">
         <v>2954</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D224" s="2">
@@ -5302,10 +5305,10 @@
       <c r="A225" s="1">
         <v>7798148010878</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="2">
         <v>2955</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D225" s="2">
@@ -5316,10 +5319,10 @@
       <c r="A226" s="1">
         <v>7798148010991</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="2">
         <v>3126</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D226" s="2">
@@ -5330,10 +5333,10 @@
       <c r="A227" s="1">
         <v>7798179575704</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="2">
         <v>5126</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D227" s="2">
@@ -5344,10 +5347,10 @@
       <c r="A228" s="1">
         <v>7798184581059</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="2">
         <v>1731</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D228" s="2">
@@ -5358,10 +5361,10 @@
       <c r="A229" s="1">
         <v>7798184581066</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="2">
         <v>1726</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="2" t="s">
         <v>231</v>
       </c>
       <c r="D229" s="2">
@@ -5372,10 +5375,10 @@
       <c r="A230" s="1">
         <v>7798184581073</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="2">
         <v>1724</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D230" s="2">
@@ -5386,10 +5389,10 @@
       <c r="A231" s="1">
         <v>7798184581080</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="2">
         <v>1730</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D231" s="2">
@@ -5400,10 +5403,10 @@
       <c r="A232" s="1">
         <v>7798184581097</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="2">
         <v>1729</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D232" s="2">
@@ -5414,10 +5417,10 @@
       <c r="A233" s="1">
         <v>7798184581103</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="2">
         <v>1728</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D233" s="2">
@@ -5428,10 +5431,10 @@
       <c r="A234" s="1">
         <v>7798184581332</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="2">
         <v>1725</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D234" s="2">
@@ -5442,10 +5445,10 @@
       <c r="A235" s="1">
         <v>7798184581738</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="2">
         <v>1727</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D235" s="2">
@@ -5456,10 +5459,10 @@
       <c r="A236" s="1">
         <v>7798184583015</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="2">
         <v>3038</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D236" s="2">
@@ -5470,10 +5473,10 @@
       <c r="A237" s="1">
         <v>7798184583022</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="2">
         <v>3039</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D237" s="2">
@@ -5484,10 +5487,10 @@
       <c r="A238" s="1">
         <v>7798184583039</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="2">
         <v>3040</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D238" s="2">
@@ -5498,10 +5501,10 @@
       <c r="A239" s="1">
         <v>7798184585019</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="2">
         <v>3032</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D239" s="2">
@@ -5512,10 +5515,10 @@
       <c r="A240" s="1">
         <v>7798184586351</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="2">
         <v>3031</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D240" s="2">
@@ -5526,10 +5529,10 @@
       <c r="A241" s="1">
         <v>7798184680011</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="2">
         <v>2399</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D241" s="2">
@@ -5540,10 +5543,10 @@
       <c r="A242" s="1">
         <v>7798184680028</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="2">
         <v>1975</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D242" s="2">
@@ -5554,10 +5557,10 @@
       <c r="A243" s="1">
         <v>7798184680073</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="2">
         <v>1665</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D243" s="2">
@@ -5568,10 +5571,10 @@
       <c r="A244" s="1">
         <v>7798184680080</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="2">
         <v>2400</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D244" s="2">
@@ -5582,10 +5585,10 @@
       <c r="A245" s="1">
         <v>7798184680097</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="2">
         <v>2460</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D245" s="2">
@@ -5596,10 +5599,10 @@
       <c r="A246" s="1">
         <v>7798184680110</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="2">
         <v>2001</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D246" s="2">
@@ -5610,10 +5613,10 @@
       <c r="A247" s="1">
         <v>7798184680141</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="2">
         <v>1664</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="2" t="s">
         <v>249</v>
       </c>
       <c r="D247" s="2">
@@ -5624,10 +5627,10 @@
       <c r="A248" s="1">
         <v>7798184680158</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="2">
         <v>3063</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D248" s="2">
@@ -5638,10 +5641,10 @@
       <c r="A249" s="1">
         <v>7798184680172</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="2">
         <v>2458</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D249" s="2">
@@ -5652,10 +5655,10 @@
       <c r="A250" s="1">
         <v>7798184680189</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="2">
         <v>2035</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D250" s="2">
@@ -5666,10 +5669,10 @@
       <c r="A251" s="1">
         <v>7798184680202</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="2">
         <v>1671</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D251" s="2">
@@ -5680,10 +5683,10 @@
       <c r="A252" s="1">
         <v>7798184680226</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="2">
         <v>2444</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D252" s="2">
@@ -5694,10 +5697,10 @@
       <c r="A253" s="1">
         <v>7798184680387</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="2">
         <v>2443</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D253" s="2">
@@ -5708,10 +5711,10 @@
       <c r="A254" s="1">
         <v>7798184680424</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="2">
         <v>5121</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D254" s="2">
@@ -5722,10 +5725,10 @@
       <c r="A255" s="1">
         <v>7798184680431</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="2">
         <v>3069</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D255" s="2">
@@ -5736,10 +5739,10 @@
       <c r="A256" s="1">
         <v>7798184680462</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="2">
         <v>2445</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D256" s="2">
@@ -5750,10 +5753,10 @@
       <c r="A257" s="1">
         <v>7798184680608</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="2">
         <v>3268</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="2" t="s">
         <v>259</v>
       </c>
       <c r="D257" s="2">
@@ -5764,10 +5767,10 @@
       <c r="A258" s="1">
         <v>7798184680622</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="2">
         <v>2448</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D258" s="2">
@@ -5778,10 +5781,10 @@
       <c r="A259" s="1">
         <v>7798184680639</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="2">
         <v>2451</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="2" t="s">
         <v>261</v>
       </c>
       <c r="D259" s="2">
@@ -5792,10 +5795,10 @@
       <c r="A260" s="1">
         <v>7798184680646</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="2">
         <v>3266</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="2" t="s">
         <v>262</v>
       </c>
       <c r="D260" s="2">
@@ -5806,10 +5809,10 @@
       <c r="A261" s="1">
         <v>7798184680684</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="2">
         <v>2450</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="2" t="s">
         <v>263</v>
       </c>
       <c r="D261" s="2">
@@ -5820,10 +5823,10 @@
       <c r="A262" s="1">
         <v>7798184680691</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="2">
         <v>5122</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D262" s="2">
@@ -5834,10 +5837,10 @@
       <c r="A263" s="1">
         <v>7798184680714</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="2">
         <v>3260</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="2" t="s">
         <v>265</v>
       </c>
       <c r="D263" s="2">
@@ -5848,10 +5851,10 @@
       <c r="A264" s="1">
         <v>7798184680738</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="2">
         <v>2840</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D264" s="2">
@@ -5862,10 +5865,10 @@
       <c r="A265" s="1">
         <v>7798184680769</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="2">
         <v>2838</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D265" s="2">
@@ -5876,10 +5879,10 @@
       <c r="A266" s="1">
         <v>7798184680783</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="2">
         <v>3263</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="2" t="s">
         <v>268</v>
       </c>
       <c r="D266" s="2">
@@ -5890,10 +5893,10 @@
       <c r="A267" s="1">
         <v>7798184680790</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="2">
         <v>3261</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="2" t="s">
         <v>269</v>
       </c>
       <c r="D267" s="2">
@@ -5904,10 +5907,10 @@
       <c r="A268" s="1">
         <v>7798184680820</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="2">
         <v>2441</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D268" s="2">
@@ -5918,10 +5921,10 @@
       <c r="A269" s="1">
         <v>7798184680844</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="2">
         <v>5119</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="2" t="s">
         <v>271</v>
       </c>
       <c r="D269" s="2">
@@ -5932,10 +5935,10 @@
       <c r="A270" s="1">
         <v>7798184680868</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="2">
         <v>1670</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D270" s="2">
@@ -5946,10 +5949,10 @@
       <c r="A271" s="1">
         <v>7798184680875</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="2">
         <v>5118</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D271" s="2">
@@ -5960,10 +5963,10 @@
       <c r="A272" s="1">
         <v>7798184680905</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="2">
         <v>1668</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D272" s="2">
@@ -5974,10 +5977,10 @@
       <c r="A273" s="1">
         <v>7798184680912</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="2">
         <v>1674</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D273" s="2">
@@ -5988,10 +5991,10 @@
       <c r="A274" s="1">
         <v>7798184680943</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="2">
         <v>3258</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D274" s="2">
@@ -6002,10 +6005,10 @@
       <c r="A275" s="1">
         <v>7798184681001</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="2">
         <v>5355</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="2" t="s">
         <v>277</v>
       </c>
       <c r="D275" s="2">
@@ -6016,10 +6019,10 @@
       <c r="A276" s="1">
         <v>7798184681032</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="2">
         <v>2776</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D276" s="2">
@@ -6030,10 +6033,10 @@
       <c r="A277" s="1">
         <v>7798184681124</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="2">
         <v>2461</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D277" s="2">
@@ -6044,10 +6047,10 @@
       <c r="A278" s="1">
         <v>7798184681131</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="2">
         <v>1677</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D278" s="2">
@@ -6058,10 +6061,10 @@
       <c r="A279" s="1">
         <v>7798184681148</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="2">
         <v>1666</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D279" s="2">
@@ -6072,10 +6075,10 @@
       <c r="A280" s="1">
         <v>7798184681209</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="2">
         <v>3262</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D280" s="2">
@@ -6086,10 +6089,10 @@
       <c r="A281" s="1">
         <v>7798184681254</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="2">
         <v>2442</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D281" s="2">
@@ -6100,10 +6103,10 @@
       <c r="A282" s="1">
         <v>7798184681278</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="2">
         <v>2457</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D282" s="2">
@@ -6114,10 +6117,10 @@
       <c r="A283" s="1">
         <v>7798184681285</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="2">
         <v>3066</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="2" t="s">
         <v>285</v>
       </c>
       <c r="D283" s="2">
@@ -6128,10 +6131,10 @@
       <c r="A284" s="1">
         <v>7798184681292</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="2">
         <v>1672</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D284" s="2">
@@ -6142,10 +6145,10 @@
       <c r="A285" s="1">
         <v>7798184681339</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="2">
         <v>5352</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D285" s="2">
@@ -6156,10 +6159,10 @@
       <c r="A286" s="1">
         <v>7798184681346</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="2">
         <v>2842</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D286" s="2">
@@ -6170,10 +6173,10 @@
       <c r="A287" s="1">
         <v>7798184681490</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="2">
         <v>3062</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D287" s="2">
@@ -6184,10 +6187,10 @@
       <c r="A288" s="1">
         <v>7798184681780</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="2">
         <v>1669</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D288" s="2">
@@ -6198,10 +6201,10 @@
       <c r="A289" s="1">
         <v>7798184682053</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="2">
         <v>2862</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D289" s="2">
@@ -6212,10 +6215,10 @@
       <c r="A290" s="1">
         <v>7798184682091</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290" s="2">
         <v>2449</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D290" s="2">
@@ -6226,10 +6229,10 @@
       <c r="A291" s="1">
         <v>7798184682152</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="2">
         <v>1678</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D291" s="2">
@@ -6240,10 +6243,10 @@
       <c r="A292" s="1">
         <v>7798184682169</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="2">
         <v>2274</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="2" t="s">
         <v>294</v>
       </c>
       <c r="D292" s="2">
@@ -6254,10 +6257,10 @@
       <c r="A293" s="1">
         <v>7798184682343</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="2">
         <v>2843</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D293" s="2">
@@ -6268,10 +6271,10 @@
       <c r="A294" s="1">
         <v>7798184682374</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="2">
         <v>3259</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D294" s="2">
@@ -6282,10 +6285,10 @@
       <c r="A295" s="1">
         <v>7798184682817</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="2">
         <v>2456</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D295" s="2">
@@ -6296,10 +6299,10 @@
       <c r="A296" s="1">
         <v>7798184682916</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="2">
         <v>1667</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D296" s="2">
@@ -6310,10 +6313,10 @@
       <c r="A297" s="1">
         <v>7798184682978</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="2">
         <v>3264</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D297" s="2">
@@ -6324,10 +6327,10 @@
       <c r="A298" s="1">
         <v>7798184683036</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="2">
         <v>1696</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D298" s="2">
@@ -6338,10 +6341,10 @@
       <c r="A299" s="1">
         <v>7798184683074</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="2">
         <v>1701</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D299" s="2">
@@ -6352,10 +6355,10 @@
       <c r="A300" s="1">
         <v>7798184683135</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="2">
         <v>1695</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D300" s="2">
@@ -6366,10 +6369,10 @@
       <c r="A301" s="1">
         <v>7798184683173</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="2">
         <v>1698</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D301" s="2">
@@ -6380,10 +6383,10 @@
       <c r="A302" s="1">
         <v>7798184683180</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="2">
         <v>1703</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D302" s="2">
@@ -6394,10 +6397,10 @@
       <c r="A303" s="1">
         <v>7798184683258</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="2">
         <v>1702</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D303" s="2">
@@ -6408,10 +6411,10 @@
       <c r="A304" s="1">
         <v>7798184683784</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="2">
         <v>1937</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D304" s="2">
@@ -6422,10 +6425,10 @@
       <c r="A305" s="1">
         <v>7798184683814</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="2">
         <v>1679</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D305" s="2">
@@ -6436,10 +6439,10 @@
       <c r="A306" s="1">
         <v>7798184683845</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="2">
         <v>2439</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D306" s="2">
@@ -6450,10 +6453,10 @@
       <c r="A307" s="1">
         <v>7798184683906</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="2">
         <v>1673</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D307" s="2">
@@ -6464,10 +6467,10 @@
       <c r="A308" s="1">
         <v>7798184683937</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="2">
         <v>3265</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D308" s="2">
@@ -6478,10 +6481,10 @@
       <c r="A309" s="1">
         <v>7798184684248</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="2">
         <v>3065</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C309" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D309" s="2">
@@ -6492,10 +6495,10 @@
       <c r="A310" s="1">
         <v>7798184684262</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="2">
         <v>3048</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C310" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D310" s="2">
@@ -6506,10 +6509,10 @@
       <c r="A311" s="1">
         <v>7798184684583</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="2">
         <v>5120</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D311" s="2">
@@ -6520,10 +6523,10 @@
       <c r="A312" s="1">
         <v>7798184684927</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="2">
         <v>2459</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D312" s="2">
@@ -6534,10 +6537,10 @@
       <c r="A313" s="1">
         <v>7798184684941</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="2">
         <v>2447</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D313" s="2">
@@ -6548,10 +6551,10 @@
       <c r="A314" s="1">
         <v>7798184685689</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="2">
         <v>3267</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D314" s="2">
@@ -6562,10 +6565,10 @@
       <c r="A315" s="1">
         <v>7798184685931</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315" s="2">
         <v>3050</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D315" s="2">
@@ -6576,10 +6579,10 @@
       <c r="A316" s="1">
         <v>7798184686204</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="2">
         <v>5353</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D316" s="2">
@@ -6590,10 +6593,10 @@
       <c r="A317" s="1">
         <v>7798184686211</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="2">
         <v>5354</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D317" s="2">
@@ -6604,10 +6607,10 @@
       <c r="A318" s="1">
         <v>7798184686266</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="2">
         <v>3064</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D318" s="2">
@@ -6618,10 +6621,10 @@
       <c r="A319" s="1">
         <v>7798184686358</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="2">
         <v>3344</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D319" s="2">
@@ -6632,10 +6635,10 @@
       <c r="A320" s="1">
         <v>7798184686372</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="2">
         <v>3375</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D320" s="2">
@@ -6646,10 +6649,10 @@
       <c r="A321" s="1">
         <v>7798273210488</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="2">
         <v>3245</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="2" t="s">
         <v>323</v>
       </c>
       <c r="D321" s="2">
@@ -6660,10 +6663,10 @@
       <c r="A322" s="1">
         <v>7798273210945</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="2">
         <v>5872</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D322" s="2">
@@ -6674,10 +6677,10 @@
       <c r="A323" s="1">
         <v>7798273211027</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="2">
         <v>3257</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="2" t="s">
         <v>325</v>
       </c>
       <c r="D323" s="2">
@@ -6688,10 +6691,10 @@
       <c r="A324" s="1">
         <v>7798273211263</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="2">
         <v>3255</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="2" t="s">
         <v>326</v>
       </c>
       <c r="D324" s="2">
@@ -6702,10 +6705,10 @@
       <c r="A325" s="1">
         <v>7798273211287</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="2">
         <v>3251</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D325" s="2">
@@ -6716,10 +6719,10 @@
       <c r="A326" s="1">
         <v>7798273211621</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="2">
         <v>3254</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D326" s="2">
@@ -6730,10 +6733,10 @@
       <c r="A327" s="1">
         <v>7798273211645</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="2">
         <v>5878</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="2" t="s">
         <v>329</v>
       </c>
       <c r="D327" s="2">
@@ -6744,10 +6747,10 @@
       <c r="A328" s="1">
         <v>7798273211652</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="2">
         <v>3256</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D328" s="2">
@@ -6758,10 +6761,10 @@
       <c r="A329" s="1">
         <v>7798273211997</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="2">
         <v>3252</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D329" s="2">
@@ -6772,10 +6775,10 @@
       <c r="A330" s="1">
         <v>7798273212079</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="2">
         <v>3253</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D330" s="2">
@@ -6786,10 +6789,10 @@
       <c r="A331" s="1">
         <v>7798273212147</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="2">
         <v>3247</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="2" t="s">
         <v>333</v>
       </c>
       <c r="D331" s="2">
@@ -6800,10 +6803,10 @@
       <c r="A332" s="1">
         <v>7798273212178</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="2">
         <v>3241</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="2" t="s">
         <v>334</v>
       </c>
       <c r="D332" s="2">
@@ -6814,10 +6817,10 @@
       <c r="A333" s="1">
         <v>7798273212185</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="2">
         <v>3242</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D333" s="2">
@@ -6828,10 +6831,10 @@
       <c r="A334" s="1">
         <v>7798273212192</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="2">
         <v>3248</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D334" s="2">
@@ -6842,10 +6845,10 @@
       <c r="A335" s="1">
         <v>7798273212215</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="2">
         <v>3246</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D335" s="2">
@@ -6856,10 +6859,10 @@
       <c r="A336" s="1">
         <v>7798273212239</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="2">
         <v>3249</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="2" t="s">
         <v>338</v>
       </c>
       <c r="D336" s="2">
@@ -6870,10 +6873,10 @@
       <c r="A337" s="1">
         <v>7798273212253</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="2">
         <v>3374</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C337" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D337" s="2">
@@ -6884,10 +6887,10 @@
       <c r="A338" s="1">
         <v>7798273212260</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="2">
         <v>3244</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C338" s="2" t="s">
         <v>340</v>
       </c>
       <c r="D338" s="2">
@@ -6898,10 +6901,10 @@
       <c r="A339" s="1">
         <v>7798273212284</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="2">
         <v>3243</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C339" s="2" t="s">
         <v>341</v>
       </c>
       <c r="D339" s="2">
@@ -6912,10 +6915,10 @@
       <c r="A340" s="1">
         <v>7798273212338</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="2">
         <v>3250</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C340" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D340" s="2">
@@ -6926,10 +6929,10 @@
       <c r="A341" s="1">
         <v>7798377480220</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="2">
         <v>3042</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C341" s="2" t="s">
         <v>343</v>
       </c>
       <c r="D341" s="2">
@@ -6940,10 +6943,10 @@
       <c r="A342" s="1">
         <v>7798377480237</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="2">
         <v>3041</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="2" t="s">
         <v>344</v>
       </c>
       <c r="D342" s="2">
@@ -6954,10 +6957,10 @@
       <c r="A343" s="1">
         <v>7891024139165</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="2">
         <v>2103</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="2" t="s">
         <v>345</v>
       </c>
       <c r="D343" s="2">
@@ -6968,10 +6971,10 @@
       <c r="A344" s="1">
         <v>7891055500903</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344" s="2">
         <v>2606</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D344" s="2">
@@ -6985,7 +6988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7005,1704 +7008,1704 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>7792180001665</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1845</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="4">
         <v>7793065000117</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>5662</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>7790272001029</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>2987</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>7790272001005</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3083</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>7790272000961</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3132</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>7790070231420</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2190</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7792180137944</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2266</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7791866000381</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3088</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>7791866000558</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>2983</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7791866000572</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>3087</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>7794000006393</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>2578</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>7791866001203</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>3089</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>7791866004211</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>3090</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>7794000006485</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>3178</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>7794000006478</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>2792</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>7798146139007</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1909</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>7798146139045</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>2216</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>7798146139076</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>1912</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>7798146139069</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>1908</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>7790940000026</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>1652</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>7790064000261</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>2991</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>7891136057029</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>1462</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>7790070431004</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>5588</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>7790070431486</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>5787</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>7792200000319</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>2487</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>7792200000159</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>1261</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>7793450000128</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>2996</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>7790748235064</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>3146</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>7790070933478</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>4904</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>7794000006621</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>3206</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>7794000005730</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>2241</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>7794000006645</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>3203</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>7891000248799</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>3542</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>7790380037828</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>5706</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>7794640173110</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>5663</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>7794640173103</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>3221</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>7794640173066</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>3546</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>4005900399953</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>3540</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>4005900985118</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>3471</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>7790520028693</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>5584</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>7791600018344</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>3454</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>7791290794108</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>5390</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>7791290794115</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>5585</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>7791290794061</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>5603</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>7790990999851</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>3422</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>70330909229</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>3550</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>6902004095218</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>2894</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>7790070335494</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>5583</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>7790070318312</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>1252</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>7790070318329</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>761</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>7790070228666</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>1335</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>7790040139015</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>3145</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>7790380011965</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>5705</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>7790070413031</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>1627</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>7790070409966</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>1626</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>7790071010413</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>1184</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>7790070507228</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>1176</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>7790199000013</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>3328</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>7790199000020</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>3332</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>7790199000051</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>5586</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>7792180140708</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>3419</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>7790064104716</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>3547</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>7791290792098</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>2598</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>7790990001233</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>2907</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>7790990002308</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>5664</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>7790990002285</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>5786</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>7798018850184</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>3420</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>7792410008365</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>3404</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>7792410008105</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>3401</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>7792410008006</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>3403</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>7792410008655</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>3405</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>7791290792753</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>3212</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>7790520995490</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>3531</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>7790520997012</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>3532</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>7794000005372</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>3327</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>7794000007468</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>3326</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>7622201812690</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>1560</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="7" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>70330731806</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>3224</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>7790480089819</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>1352</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>7790387800067</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>2116</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>7791866001838</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>4532</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>7791866003283</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>4752</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>7798146139106</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>1911</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>7790070411488</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>552</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="7" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>7790250015833</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>2990</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>7790940233240</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>3452</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>8445290367327</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>3085</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>7790990001905</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <v>5581</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>7790070411518</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>2596</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="7" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>7790072002080</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>550</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>7790072000079</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>1326</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="7" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>7790072001014</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>546</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>7791004000822</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>1217</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="7" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>7791004000082</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>3180</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="7" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>7791004000105</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>1325</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="7" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>7792900000428</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>3450</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="7" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>7792900000138</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>807</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="7" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>7792900634227</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>1220</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>7792900006949</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>1211</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="7" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>7792900000121</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>3325</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="7" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>7792900092676</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="5">
         <v>2226</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="7" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>7792900000145</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="5">
         <v>2344</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>7798116163087</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>2297</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="7" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>7798116160017</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>2288</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="7" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>7798116163018</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>2295</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="7" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>7798116166439</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>2296</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="7" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>7798116166446</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="5">
         <v>2289</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>7798116163056</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="5">
         <v>2291</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="7" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>7798116163032</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="5">
         <v>2597</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="7" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>7791200000213</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>2986</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>7790040173200</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>3509</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>7790040719804</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="5">
         <v>3508</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="7" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>7791274196416</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="5">
         <v>3226</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="7" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>7791293044477</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>2567</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="7" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>7794626011559</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>2229</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="7" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>7794626010316</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>1991</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="7" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>7790071090118</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="5">
         <v>5318</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>7790380013525</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="5">
         <v>1573</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>7790380012061</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>1574</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="7" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>7790380026044</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>5703</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="7" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>7792900806037</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>5637</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="7" t="s">
         <v>584</v>
       </c>
     </row>
@@ -8713,7 +8716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -8727,41 +8730,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10">
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="9">
         <v>7790742330109</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>3151</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>330100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>7790742141606</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>3570</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>587</v>
       </c>
       <c r="D3" s="2">
@@ -8769,13 +8772,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>7790742104809</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>5749</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>588</v>
       </c>
       <c r="D4" s="2">
@@ -8783,13 +8786,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>7790742625304</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>479</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>589</v>
       </c>
       <c r="D5" s="2">
@@ -8797,13 +8800,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>7790742625205</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1097</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>590</v>
       </c>
       <c r="D6" s="2">
@@ -8811,13 +8814,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>7790742625502</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>1098</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>591</v>
       </c>
       <c r="D7" s="2">
@@ -8825,13 +8828,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7790742430601</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>3355</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>592</v>
       </c>
       <c r="D8" s="2">
@@ -8839,13 +8842,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>7790742430700</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>5399</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>593</v>
       </c>
       <c r="D9" s="2">
@@ -8853,13 +8856,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>7790742363107</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>5903</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>594</v>
       </c>
       <c r="D10" s="2">
@@ -8867,13 +8870,13 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>7790742449108</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>424</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>595</v>
       </c>
       <c r="D11" s="2">
@@ -8881,13 +8884,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>7790742448002</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>423</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>596</v>
       </c>
       <c r="D12" s="2">
@@ -8895,13 +8898,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>7790813110401</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>320</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>597</v>
       </c>
       <c r="D13" s="2">
@@ -8909,13 +8912,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>7791337060791</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>5252</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>598</v>
       </c>
       <c r="D14" s="2">
@@ -8923,13 +8926,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>7791337060784</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>5261</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>599</v>
       </c>
       <c r="D15" s="2">
@@ -8937,13 +8940,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>7791337005228</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>5069</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>600</v>
       </c>
       <c r="D16" s="2">
@@ -8951,13 +8954,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>7791337007390</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>5066</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>601</v>
       </c>
       <c r="D17" s="2">
@@ -8965,13 +8968,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>7791337007383</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>5065</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>602</v>
       </c>
       <c r="D18" s="2">
@@ -8979,13 +8982,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>7791337007437</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>5691</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>603</v>
       </c>
       <c r="D19" s="2">
@@ -8993,13 +8996,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>7791337007444</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>5710</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>604</v>
       </c>
       <c r="D20" s="2">
@@ -9007,13 +9010,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>7791337007604</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>5448</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>605</v>
       </c>
       <c r="D21" s="2">
@@ -9022,6 +9025,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>